--- a/src/main/java/FrameworkApp/Sample/Data/Actitime.xlsx
+++ b/src/main/java/FrameworkApp/Sample/Data/Actitime.xlsx
@@ -16,38 +16,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>OPPO</t>
+  </si>
+  <si>
+    <t>55212</t>
+  </si>
+  <si>
+    <t>54545</t>
+  </si>
+  <si>
+    <t>daads</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>InputType</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Manual Step</t>
+  </si>
+  <si>
+    <t>Verify with Username Only.</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Verify with Password Only</t>
+  </si>
+  <si>
+    <t>Verify with Invalid Username and Password</t>
+  </si>
+  <si>
+    <t>Verify with Valid Username and Password</t>
+  </si>
+  <si>
+    <t>Username or Password is invalid. Please try again.</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
   <si>
     <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>OPPO</t>
-  </si>
-  <si>
-    <t>55212</t>
-  </si>
-  <si>
-    <t>54545</t>
-  </si>
-  <si>
-    <t>daads</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>manager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -75,9 +116,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,50 +422,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="34.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/java/FrameworkApp/Sample/Data/Actitime.xlsx
+++ b/src/main/java/FrameworkApp/Sample/Data/Actitime.xlsx
@@ -69,10 +69,10 @@
     <t>Username or Password is invalid. Please try again.</t>
   </si>
   <si>
+    <t>Username</t>
+  </si>
+  <si>
     <t>Logout</t>
-  </si>
-  <si>
-    <t>Username</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -437,7 +439,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -508,7 +510,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
